--- a/data/trans_camb/P23_DUKE_AC_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_AC_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,19</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,84</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>54,42</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>60,7</t>
+          <t>13,76</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>58,21</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,09</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11,04</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 2,07</t>
+          <t>-9,97; 8,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 6,77</t>
+          <t>-11,75; 6,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,44; 65,07</t>
+          <t>-4,0; 16,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 9,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 18,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,38; 67,96</t>
+          <t>4,27; 22,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 4,51</t>
+          <t>-3,37; 14,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 8,38</t>
+          <t>5,3; 25,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,86; 64,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 14,12</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 8,84</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3,35; 18,63</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-27,13%</t>
+          <t>-1,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-19,35%</t>
+          <t>-3,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>180,17%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>324,59%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,36%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>247,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,68; 11,49</t>
+          <t>-11,38; 11,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-51,95; 35,86</t>
+          <t>-13,35; 8,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,2; 312,9</t>
+          <t>-4,41; 21,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 63,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 114,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>214,51; 475,13</t>
+          <t>5,83; 36,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 24,19</t>
+          <t>-4,35; 22,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,64; 42,39</t>
+          <t>7,24; 40,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>156,68; 341,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 19,96</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-6,35; 12,36</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,46; 26,42</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>64,71</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>58,99</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61,94</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 6,95</t>
+          <t>-5,5; 10,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 6,84</t>
+          <t>-5,23; 9,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,35; 69,82</t>
+          <t>-8,12; 8,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,52; -0,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 3,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,38; 64,48</t>
+          <t>-1,31; 9,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,27</t>
+          <t>-4,24; 7,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 4,08</t>
+          <t>-2,17; 9,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>58,5; 65,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 8,21</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 6,52</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 7,43</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>449,43%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-23,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>328,69%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-8,65%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>382,75%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,59; 57,22</t>
+          <t>-6,75; 14,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 56,82</t>
+          <t>-6,52; 12,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>348,52; 595,61</t>
+          <t>-9,96; 12,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,68; -1,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 25,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>248,37; 433,5</t>
+          <t>-1,59; 12,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 15,47</t>
+          <t>-5,01; 10,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 28,56</t>
+          <t>-2,56; 12,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>320,04; 471,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 10,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 8,75</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 9,92</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>12,64</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>58,91</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>66,6</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>62,9</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,46</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 4,45</t>
+          <t>5,21; 20,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 5,81</t>
+          <t>-1,33; 13,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>48,79; 67,04</t>
+          <t>0,78; 16,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 4,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 7,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,78; 72,27</t>
+          <t>-4,96; 6,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 2,87</t>
+          <t>-6,89; 4,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 5,32</t>
+          <t>-9,1; 3,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,45; 67,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 11,09</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 7,69</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 7,92</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,04%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>472,68%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>619,33%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,38%</t>
+          <t>-1,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>-4,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>541,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,49; 49,35</t>
+          <t>6,43; 31,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,63; 62,55</t>
+          <t>-1,73; 21,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>299,61; 730,5</t>
+          <t>1,03; 25,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 50,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 87,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>433,69; 870,64</t>
+          <t>-5,76; 8,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 29,73</t>
+          <t>-7,96; 5,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 54,8</t>
+          <t>-10,81; 4,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404,99; 724,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 15,12</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 10,5</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 11,0</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>62,57</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>61,97</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>62,28</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>5,83</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 3,15</t>
+          <t>-7,56; 5,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 4,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>57,97; 67,04</t>
+          <t>-3,94; 11,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 6,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>58,42; 65,32</t>
+          <t>-2,96; 9,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 1,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,77</t>
+          <t>1,38; 12,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>59,18; 64,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 5,62</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 10,14</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,09%</t>
+          <t>-1,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>381,76%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>389,86%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>385,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 23,32</t>
+          <t>-9,48; 7,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,7; 28,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>291,73; 485,13</t>
+          <t>-4,9; 15,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 12,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 40,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>324,11; 472,52</t>
+          <t>-3,71; 12,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 10,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 25,15</t>
+          <t>1,89; 17,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>331,41; 445,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 7,44</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 13,44</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4,31</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4,79</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4,69</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 7,48</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 5,28</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 8,2</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 8,2</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 5,13</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 8,08</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 6,5</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 4,34</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 7,12</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4,57%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>6,12%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 10,05</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 7,14</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 11,05</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2,33; 10,78</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 6,71</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 10,52</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 8,54</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 5,76</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 9,33</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
